--- a/medicine/Psychotrope/Rugenbräu/Rugenbräu.xlsx
+++ b/medicine/Psychotrope/Rugenbräu/Rugenbräu.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Rugenbr%C3%A4u</t>
+          <t>Rugenbräu</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Rugenbräu est une brasserie suisse qui a son siège à Matten bei Interlaken et qui produit la bière du même nom.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Rugenbr%C3%A4u</t>
+          <t>Rugenbräu</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Christian Indermühle fonde l'entreprise à Kiesen en 1866. Ses fils, Carl et Albert reprennent l'affaire en 1875.
 En 1880 ils doivent vendre la brasserie qui devient une société anonyme avec l'aide de la banque cantonale bernoise[réf. nécessaire]. La brasserie s'installe au chateau de Reichenbach vers Zollikofen, jusqu'en 1971.
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Rugenbr%C3%A4u</t>
+          <t>Rugenbräu</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Produits</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Hellem Lagerbier
 Dunkelbier
